--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N2">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O2">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P2">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q2">
-        <v>9.552339515368603</v>
+        <v>24.291817077692</v>
       </c>
       <c r="R2">
-        <v>9.552339515368603</v>
+        <v>218.626353699228</v>
       </c>
       <c r="S2">
-        <v>0.002238074698687351</v>
+        <v>0.003510861362483641</v>
       </c>
       <c r="T2">
-        <v>0.002238074698687351</v>
+        <v>0.003709996774915225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N3">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O3">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P3">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q3">
-        <v>29.66053605350285</v>
+        <v>48.75425167488267</v>
       </c>
       <c r="R3">
-        <v>29.66053605350285</v>
+        <v>438.788265073944</v>
       </c>
       <c r="S3">
-        <v>0.006949344208719443</v>
+        <v>0.007046381829514911</v>
       </c>
       <c r="T3">
-        <v>0.006949344208719443</v>
+        <v>0.00744605131426444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N4">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O4">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P4">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q4">
-        <v>2.749587643970819</v>
+        <v>5.016021052819333</v>
       </c>
       <c r="R4">
-        <v>2.749587643970819</v>
+        <v>45.144189475374</v>
       </c>
       <c r="S4">
-        <v>0.0006442173174324188</v>
+        <v>0.0007249583039187415</v>
       </c>
       <c r="T4">
-        <v>0.0006442173174324188</v>
+        <v>0.0007660778059273408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N5">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O5">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P5">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q5">
-        <v>10.9020627453566</v>
+        <v>16.473386382642</v>
       </c>
       <c r="R5">
-        <v>10.9020627453566</v>
+        <v>148.260477443778</v>
       </c>
       <c r="S5">
-        <v>0.002554309418611891</v>
+        <v>0.002380874826082669</v>
       </c>
       <c r="T5">
-        <v>0.002554309418611891</v>
+        <v>0.002515917609459495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N6">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O6">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P6">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q6">
-        <v>6.801239904146075</v>
+        <v>10.645618289766</v>
       </c>
       <c r="R6">
-        <v>6.801239904146075</v>
+        <v>63.873709738596</v>
       </c>
       <c r="S6">
-        <v>0.001593503133413777</v>
+        <v>0.001538595890696527</v>
       </c>
       <c r="T6">
-        <v>0.001593503133413777</v>
+        <v>0.001083909844913171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N7">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O7">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P7">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q7">
-        <v>126.7792920396162</v>
+        <v>238.634317967958</v>
       </c>
       <c r="R7">
-        <v>126.7792920396162</v>
+        <v>2147.708861711622</v>
       </c>
       <c r="S7">
-        <v>0.02970387781703659</v>
+        <v>0.03448947454349682</v>
       </c>
       <c r="T7">
-        <v>0.02970387781703659</v>
+        <v>0.03644571121269678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N8">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O8">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P8">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q8">
-        <v>393.6566279212176</v>
+        <v>478.944722795484</v>
       </c>
       <c r="R8">
-        <v>393.6566279212176</v>
+        <v>4310.502505159357</v>
       </c>
       <c r="S8">
-        <v>0.09223216338820224</v>
+        <v>0.06922119150865372</v>
       </c>
       <c r="T8">
-        <v>0.09223216338820224</v>
+        <v>0.07314740479277214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N9">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O9">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P9">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q9">
-        <v>36.49271200449424</v>
+        <v>49.275637101339</v>
       </c>
       <c r="R9">
-        <v>36.49271200449424</v>
+        <v>443.480733912051</v>
       </c>
       <c r="S9">
-        <v>0.008550095533386318</v>
+        <v>0.007121736914844802</v>
       </c>
       <c r="T9">
-        <v>0.008550095533386318</v>
+        <v>0.007525680526210761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N10">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O10">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P10">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q10">
-        <v>144.6929094599345</v>
+        <v>161.828788331133</v>
       </c>
       <c r="R10">
-        <v>144.6929094599345</v>
+        <v>1456.459094980197</v>
       </c>
       <c r="S10">
-        <v>0.03390096627331227</v>
+        <v>0.02338888188035458</v>
       </c>
       <c r="T10">
-        <v>0.03390096627331227</v>
+        <v>0.02471549497004467</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N11">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O11">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P11">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q11">
-        <v>90.26651310414125</v>
+        <v>104.578832114559</v>
       </c>
       <c r="R11">
-        <v>90.26651310414125</v>
+        <v>627.472992687354</v>
       </c>
       <c r="S11">
-        <v>0.02114908068249426</v>
+        <v>0.01511462810008749</v>
       </c>
       <c r="T11">
-        <v>0.02114908068249426</v>
+        <v>0.01064795135548523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N12">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O12">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P12">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q12">
-        <v>139.8262604129875</v>
+        <v>274.8805294089246</v>
       </c>
       <c r="R12">
-        <v>139.8262604129875</v>
+        <v>2473.924764680322</v>
       </c>
       <c r="S12">
-        <v>0.0327607299906886</v>
+        <v>0.03972808731904606</v>
       </c>
       <c r="T12">
-        <v>0.0327607299906886</v>
+        <v>0.04198145714388004</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N13">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O13">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P13">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q13">
-        <v>434.1681774955063</v>
+        <v>551.6917268257729</v>
       </c>
       <c r="R13">
-        <v>434.1681774955063</v>
+        <v>4965.225541431956</v>
       </c>
       <c r="S13">
-        <v>0.1017238563876983</v>
+        <v>0.0797352113067416</v>
       </c>
       <c r="T13">
-        <v>0.1017238563876983</v>
+        <v>0.08425777786506762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N14">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O14">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P14">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q14">
-        <v>40.24820907125817</v>
+        <v>56.76012288893345</v>
       </c>
       <c r="R14">
-        <v>40.24820907125817</v>
+        <v>510.841106000401</v>
       </c>
       <c r="S14">
-        <v>0.009429993379625566</v>
+        <v>0.008203458874370602</v>
       </c>
       <c r="T14">
-        <v>0.009429993379625566</v>
+        <v>0.008668757556844833</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N15">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O15">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P15">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q15">
-        <v>159.583383946769</v>
+        <v>186.408993429183</v>
       </c>
       <c r="R15">
-        <v>159.583383946769</v>
+        <v>1677.680940862647</v>
       </c>
       <c r="S15">
-        <v>0.0373897445089284</v>
+        <v>0.02694142354838473</v>
       </c>
       <c r="T15">
-        <v>0.0373897445089284</v>
+        <v>0.02846953614979097</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N16">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O16">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P16">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q16">
-        <v>99.5559193052441</v>
+        <v>120.463330594709</v>
       </c>
       <c r="R16">
-        <v>99.5559193052441</v>
+        <v>722.779983568254</v>
       </c>
       <c r="S16">
-        <v>0.0233255511639997</v>
+        <v>0.01741039180512554</v>
       </c>
       <c r="T16">
-        <v>0.0233255511639997</v>
+        <v>0.01226527068964683</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H17">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I17">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J17">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N17">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O17">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P17">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q17">
-        <v>358.9386075538184</v>
+        <v>961.2454985201452</v>
       </c>
       <c r="R17">
-        <v>358.9386075538184</v>
+        <v>8651.209486681308</v>
       </c>
       <c r="S17">
-        <v>0.08409787096195676</v>
+        <v>0.1389274285172721</v>
       </c>
       <c r="T17">
-        <v>0.08409787096195676</v>
+        <v>0.1468073667772879</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H18">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I18">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J18">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N18">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O18">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P18">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q18">
-        <v>1114.523985795884</v>
+        <v>1929.242460797087</v>
       </c>
       <c r="R18">
-        <v>1114.523985795884</v>
+        <v>17363.18214717379</v>
       </c>
       <c r="S18">
-        <v>0.2611284837266064</v>
+        <v>0.278830636374893</v>
       </c>
       <c r="T18">
-        <v>0.2611284837266064</v>
+        <v>0.2946458589201079</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H19">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I19">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J19">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N19">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O19">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P19">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q19">
-        <v>103.3184759279346</v>
+        <v>198.4877311600015</v>
       </c>
       <c r="R19">
-        <v>103.3184759279346</v>
+        <v>1786.389580440014</v>
       </c>
       <c r="S19">
-        <v>0.02420710303577666</v>
+        <v>0.02868714612941172</v>
       </c>
       <c r="T19">
-        <v>0.02420710303577666</v>
+        <v>0.03031427579537048</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H20">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I20">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J20">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N20">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O20">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P20">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q20">
-        <v>409.6557932207937</v>
+        <v>651.864307023762</v>
       </c>
       <c r="R20">
-        <v>409.6557932207937</v>
+        <v>5866.778763213858</v>
       </c>
       <c r="S20">
-        <v>0.09598070341857785</v>
+        <v>0.09421301015861855</v>
       </c>
       <c r="T20">
-        <v>0.09598070341857785</v>
+        <v>0.09955675481194927</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H21">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I21">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J21">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N21">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O21">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P21">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q21">
-        <v>255.5633179605903</v>
+        <v>421.255134075526</v>
       </c>
       <c r="R21">
-        <v>255.5633179605903</v>
+        <v>2527.530804453156</v>
       </c>
       <c r="S21">
-        <v>0.05987745671308636</v>
+        <v>0.06088339827537303</v>
       </c>
       <c r="T21">
-        <v>0.05987745671308636</v>
+        <v>0.04289112897121516</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H22">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I22">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J22">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N22">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O22">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P22">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q22">
-        <v>48.21653147390434</v>
+        <v>98.91789833231098</v>
       </c>
       <c r="R22">
-        <v>48.21653147390434</v>
+        <v>593.5073899938659</v>
       </c>
       <c r="S22">
-        <v>0.01129693924473575</v>
+        <v>0.01429646148751553</v>
       </c>
       <c r="T22">
-        <v>0.01129693924473575</v>
+        <v>0.01007156944031935</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H23">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I23">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J23">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N23">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O23">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P23">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q23">
-        <v>149.7149643661309</v>
+        <v>198.530562576678</v>
       </c>
       <c r="R23">
-        <v>149.7149643661309</v>
+        <v>1191.183375460068</v>
       </c>
       <c r="S23">
-        <v>0.03507761352322351</v>
+        <v>0.02869333649242281</v>
       </c>
       <c r="T23">
-        <v>0.03507761352322351</v>
+        <v>0.02021387818309064</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H24">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I24">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J24">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N24">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O24">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P24">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q24">
-        <v>13.87885961993696</v>
+        <v>20.4255720742755</v>
       </c>
       <c r="R24">
-        <v>13.87885961993696</v>
+        <v>122.553432445653</v>
       </c>
       <c r="S24">
-        <v>0.003251760944220987</v>
+        <v>0.002952078536276056</v>
       </c>
       <c r="T24">
-        <v>0.003251760944220987</v>
+        <v>0.002079679926207217</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H25">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I25">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J25">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N25">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O25">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P25">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q25">
-        <v>55.0294145896135</v>
+        <v>67.08072739784849</v>
       </c>
       <c r="R25">
-        <v>55.0294145896135</v>
+        <v>402.484364387091</v>
       </c>
       <c r="S25">
-        <v>0.01289317033575288</v>
+        <v>0.009695080991066822</v>
       </c>
       <c r="T25">
-        <v>0.01289317033575288</v>
+        <v>0.006829989470913379</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H26">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I26">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J26">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N26">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O26">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P26">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q26">
-        <v>34.3300400255067</v>
+        <v>43.34966726876549</v>
       </c>
       <c r="R26">
-        <v>34.3300400255067</v>
+        <v>173.398669075062</v>
       </c>
       <c r="S26">
-        <v>0.008043390193825809</v>
+        <v>0.006265265023347968</v>
       </c>
       <c r="T26">
-        <v>0.008043390193825809</v>
+        <v>0.002942502091619267</v>
       </c>
     </row>
   </sheetData>
